--- a/myapp/files/9_MethodComparePercent/Scenario 309.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 309.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>8195</v>
+        <v>17851</v>
       </c>
       <c r="F2" t="n">
-        <v>7.76593224354418</v>
+        <v>2.88938094636897</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -593,10 +593,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>6.89655172413793</v>
+        <v>2.98507462686567</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1271</v>
+        <v>19632</v>
       </c>
       <c r="F3" t="n">
-        <v>1.20445392087183</v>
+        <v>3.17765541085181</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.44827586206897</v>
+        <v>2.61194029850746</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17774</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.87691764835371</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.23880597014925</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10924</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.7681697080351</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.49253731343284</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4554</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.737115054045392</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8676</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.40430615039478</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.86567164179104</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>16851</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.72751993318377</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.23880597014925</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>16903</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.7359367058694</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.98507462686567</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19024</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.07924391483521</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.23880597014925</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9733</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.57539324133153</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>325</v>
+        <v>6763</v>
       </c>
       <c r="F12" t="n">
-        <v>0.307983890073442</v>
+        <v>1.0946660321715</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72413793103448</v>
+        <v>1.49253731343284</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5427</v>
+        <v>30033</v>
       </c>
       <c r="F13" t="n">
-        <v>5.14285714285714</v>
+        <v>4.86117180899106</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,16 +1011,16 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.73134328358209</v>
+      </c>
+      <c r="K13" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.44827586206897</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.44927536231884</v>
+        <v>2.89855072463768</v>
       </c>
     </row>
     <row r="14">
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>22756</v>
+        <v>65811</v>
       </c>
       <c r="F14" t="n">
-        <v>21.5645581615731</v>
+        <v>10.6522351387311</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.69565217391304</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>13.7931034482759</v>
+        <v>8.2089552238806</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>9333</v>
+        <v>37755</v>
       </c>
       <c r="F15" t="n">
-        <v>8.84434968017058</v>
+        <v>6.11106255280716</v>
       </c>
       <c r="G15" t="n">
         <v>7</v>
@@ -1087,10 +1087,10 @@
         <v>10.1449275362319</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J15" t="n">
-        <v>13.7931034482759</v>
+        <v>7.83582089552239</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8599</v>
+        <v>28643</v>
       </c>
       <c r="F16" t="n">
-        <v>8.14877990997394</v>
+        <v>4.63618500066363</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>5.17241379310345</v>
+        <v>4.1044776119403</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6441</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.04254678592586</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.11940298507463</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>27421</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4.43839084255132</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,16 +1201,16 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>4.85074626865672</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.89855072463768</v>
+        <v>1.44927536231884</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>126</v>
+        <v>42262</v>
       </c>
       <c r="F19" t="n">
-        <v>0.119402985074627</v>
+        <v>6.84057013923284</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>1.72413793103448</v>
+        <v>8.2089552238806</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>4797</v>
+        <v>47921</v>
       </c>
       <c r="F20" t="n">
-        <v>4.54584221748401</v>
+        <v>7.75654161284788</v>
       </c>
       <c r="G20" t="n">
         <v>30</v>
@@ -1277,10 +1277,10 @@
         <v>43.4782608695652</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J20" t="n">
-        <v>3.44827586206897</v>
+        <v>8.95522388059702</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>6266</v>
+        <v>36407</v>
       </c>
       <c r="F21" t="n">
-        <v>5.93792940061597</v>
+        <v>5.89287390703351</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>4.34782608695652</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>6.89655172413793</v>
+        <v>6.34328358208955</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1519</v>
+        <v>4490</v>
       </c>
       <c r="F22" t="n">
-        <v>1.43946932006634</v>
+        <v>0.72675594920154</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.72413793103448</v>
+        <v>1.11940298507463</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2511</v>
+        <v>20375</v>
       </c>
       <c r="F23" t="n">
-        <v>2.37953091684435</v>
+        <v>3.29791814364841</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1391,10 +1391,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.72413793103448</v>
+        <v>3.35820895522388</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5824</v>
+        <v>32137</v>
       </c>
       <c r="F24" t="n">
-        <v>5.51907131011609</v>
+        <v>5.20172738073271</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,16 +1429,16 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>6.89655172413793</v>
+        <v>5.97014925373134</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>10.1449275362319</v>
+        <v>8.69565217391304</v>
       </c>
     </row>
     <row r="25">
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>11320</v>
+        <v>39702</v>
       </c>
       <c r="F25" t="n">
-        <v>10.7273158019427</v>
+        <v>6.42620594547874</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>13.7931034482759</v>
+        <v>8.2089552238806</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>17256</v>
+        <v>49731</v>
       </c>
       <c r="F26" t="n">
-        <v>16.3525230987918</v>
+        <v>8.04951004671309</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1505,10 +1505,10 @@
         <v>10.1449275362319</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J26" t="n">
-        <v>15.5172413793103</v>
+        <v>6.71641791044776</v>
       </c>
       <c r="K26" t="n">
         <v>10</v>
